--- a/verblist/verblist_excel/verblist_arm.xlsx
+++ b/verblist/verblist_excel/verblist_arm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Verbs_Paradigms/Public/verblist/verblist_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D105CC-4600-8C4F-B1A6-9FB1F6B8B427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E7A80E-BED2-2D49-94E4-850A7BA68482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18249,12 +18249,6 @@
     <t>իյն</t>
   </si>
   <si>
-    <t>խածն</t>
-  </si>
-  <si>
-    <t>պագն</t>
-  </si>
-  <si>
     <t>մն</t>
   </si>
   <si>
@@ -18292,6 +18286,12 @@
   </si>
   <si>
     <t>Class example</t>
+  </si>
+  <si>
+    <t>խած</t>
+  </si>
+  <si>
+    <t>պագ</t>
   </si>
 </sst>
 </file>
@@ -18641,8 +18641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3259"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3227" workbookViewId="0">
-      <selection activeCell="J3236" sqref="J3236"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2396" workbookViewId="0">
+      <selection activeCell="E2414" sqref="E2414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18662,10 +18662,10 @@
         <v>3227</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6086</v>
+        <v>6084</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6087</v>
+        <v>6085</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3279</v>
@@ -45741,7 +45741,7 @@
         <v>558</v>
       </c>
       <c r="E942" t="s">
-        <v>6073</v>
+        <v>6086</v>
       </c>
       <c r="F942" t="s">
         <v>3259</v>
@@ -52599,7 +52599,7 @@
         <v>2785</v>
       </c>
       <c r="E1179" t="s">
-        <v>6078</v>
+        <v>6076</v>
       </c>
       <c r="F1179" t="s">
         <v>3259</v>
@@ -73050,7 +73050,7 @@
         <v>2663</v>
       </c>
       <c r="E1887" t="s">
-        <v>6075</v>
+        <v>6073</v>
       </c>
       <c r="F1887" t="s">
         <v>3259</v>
@@ -81073,7 +81073,7 @@
         <v>2785</v>
       </c>
       <c r="E2165" t="s">
-        <v>6079</v>
+        <v>6077</v>
       </c>
       <c r="F2165" t="s">
         <v>3259</v>
@@ -88241,7 +88241,7 @@
         <v>558</v>
       </c>
       <c r="E2413" t="s">
-        <v>6074</v>
+        <v>6087</v>
       </c>
       <c r="F2413" t="s">
         <v>3259</v>
@@ -92724,7 +92724,7 @@
         <v>2785</v>
       </c>
       <c r="E2568" t="s">
-        <v>6080</v>
+        <v>6078</v>
       </c>
       <c r="F2568" t="s">
         <v>3259</v>
@@ -93008,7 +93008,7 @@
         <v>2663</v>
       </c>
       <c r="E2578" t="s">
-        <v>6076</v>
+        <v>6074</v>
       </c>
       <c r="F2578" t="s">
         <v>3259</v>
@@ -95609,7 +95609,7 @@
         <v>2785</v>
       </c>
       <c r="E2668" t="s">
-        <v>6081</v>
+        <v>6079</v>
       </c>
       <c r="F2668" t="s">
         <v>3259</v>
@@ -96760,7 +96760,7 @@
         <v>2663</v>
       </c>
       <c r="E2708" t="s">
-        <v>6077</v>
+        <v>6075</v>
       </c>
       <c r="F2708" t="s">
         <v>3259</v>
@@ -99825,7 +99825,7 @@
         <v>2785</v>
       </c>
       <c r="E2814" t="s">
-        <v>6082</v>
+        <v>6080</v>
       </c>
       <c r="F2814" t="s">
         <v>3259</v>
@@ -100892,7 +100892,7 @@
         <v>2785</v>
       </c>
       <c r="E2851" t="s">
-        <v>6083</v>
+        <v>6081</v>
       </c>
       <c r="F2851" t="s">
         <v>3259</v>
@@ -102417,7 +102417,7 @@
         <v>1711</v>
       </c>
       <c r="E2904" t="s">
-        <v>6085</v>
+        <v>6083</v>
       </c>
       <c r="F2904" t="s">
         <v>3278</v>
@@ -109529,7 +109529,7 @@
         <v>2785</v>
       </c>
       <c r="E3151" t="s">
-        <v>6084</v>
+        <v>6082</v>
       </c>
       <c r="F3151" t="s">
         <v>3259</v>
